--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A7994-73D9-46AF-914B-0E614C122F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD3332-133D-4A50-9F01-34DB5FFA1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
+    <sheet name="GREEK b)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="60">
   <si>
     <t>Função de treino</t>
   </si>
@@ -159,17 +160,62 @@
     <t>traincgb</t>
   </si>
   <si>
-    <t>Base + função de treino trainscg</t>
-  </si>
-  <si>
-    <t>Base + função de treino traincgb</t>
+    <t>traincgf</t>
+  </si>
+  <si>
+    <t>trainoss</t>
+  </si>
+  <si>
+    <t>traingdx</t>
+  </si>
+  <si>
+    <t>Função de treino trainscg</t>
+  </si>
+  <si>
+    <t>Função de treino traincgb</t>
+  </si>
+  <si>
+    <t>Função de treino traincgf</t>
+  </si>
+  <si>
+    <t>Função de treino trainoss</t>
+  </si>
+  <si>
+    <t>Função de treino traingdx</t>
+  </si>
+  <si>
+    <t>purelin, logsig</t>
+  </si>
+  <si>
+    <t>logsig - purelin</t>
+  </si>
+  <si>
+    <t>purelin - logsig</t>
+  </si>
+  <si>
+    <t>tansig - tansig</t>
+  </si>
+  <si>
+    <t>tansig - logsig</t>
+  </si>
+  <si>
+    <t>logsig - tansig - purelin</t>
+  </si>
+  <si>
+    <t>purelin, purelin</t>
+  </si>
+  <si>
+    <t>purelin - purelin</t>
+  </si>
+  <si>
+    <t>Best Validation Performance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +273,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -387,7 +440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -413,13 +466,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -913,18 +969,18 @@
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1047,22 +1103,22 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1073,7 +1129,7 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1092,7 +1148,7 @@
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1103,114 +1159,160 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.3186999999999999E-2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7.8566999999999998E-2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2.1617000000000001E-2</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1218,147 +1320,209 @@
       <c r="C22" s="1">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>25</v>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
+      <c r="H22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4"/>
+      <c r="H24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="H25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.2475</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.6752E-2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1366,13 +1530,23 @@
     </row>
     <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1380,7 +1554,7 @@
     </row>
     <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1394,7 +1568,7 @@
     </row>
     <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1406,12 +1580,713 @@
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
     </row>
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11" style="8"/>
+    <col min="9" max="9" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>9.3451000000000006E-2</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.4668000000000002E-2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AD3332-133D-4A50-9F01-34DB5FFA1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F2C28-A5B0-4B1A-88FD-DC7AF5ABD21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="70">
   <si>
     <t>Função de treino</t>
   </si>
@@ -61,18 +61,6 @@
     <t xml:space="preserve">O número e dimensão das camadas encondidas influencia o desempenho? </t>
   </si>
   <si>
-    <t>Conf1</t>
-  </si>
-  <si>
-    <t>Conf2</t>
-  </si>
-  <si>
-    <t>Conf3</t>
-  </si>
-  <si>
-    <t>Conf4</t>
-  </si>
-  <si>
     <t>10,10</t>
   </si>
   <si>
@@ -94,21 +82,12 @@
     <t>tansig, logsig</t>
   </si>
   <si>
-    <t>Conf5</t>
-  </si>
-  <si>
-    <t>Conf6</t>
-  </si>
-  <si>
     <t>dividerand = {0.33, 0.33, 0.33}</t>
   </si>
   <si>
     <t>dividerand = {0.9, 0.05, 0.05}</t>
   </si>
   <si>
-    <t>trainlm</t>
-  </si>
-  <si>
     <t>10, 10, 10</t>
   </si>
   <si>
@@ -209,6 +188,57 @@
   </si>
   <si>
     <t>Best Validation Performance</t>
+  </si>
+  <si>
+    <t>traincgp</t>
+  </si>
+  <si>
+    <t>0.33 - 0.33 - 0.33</t>
+  </si>
+  <si>
+    <t>0.9 - 0.05 - 0.05</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0.25, 0.25}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0.5, 0}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0, 0.5}</t>
+  </si>
+  <si>
+    <t>dividerand = {0.3, 0.5, 0.1}</t>
+  </si>
+  <si>
+    <t>0.5 - 0.25 - 0.25</t>
+  </si>
+  <si>
+    <t>divideblock</t>
+  </si>
+  <si>
+    <t>divideint</t>
+  </si>
+  <si>
+    <t>divideind</t>
+  </si>
+  <si>
+    <t>divideint = {0.7, 0.15, 0.15}</t>
+  </si>
+  <si>
+    <t>divideblock = {0.7, 0.15, 0.15}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função de divisão influencia o desempenho? </t>
+  </si>
+  <si>
+    <t>divideind = {70, 15, 15}</t>
+  </si>
+  <si>
+    <t>A junção dos melhores parâmetros de cada teste é benéfico ao desempenho?</t>
+  </si>
+  <si>
+    <t>tansig, logsig, purelin, tansig, tansig, logsig, purelin</t>
   </si>
 </sst>
 </file>
@@ -469,13 +499,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -927,10 +957,10 @@
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>4</v>
@@ -939,7 +969,7 @@
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -951,10 +981,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3">
@@ -964,42 +994,42 @@
         <v>0.05</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
@@ -1009,27 +1039,27 @@
         <v>0.04</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3">
@@ -1039,27 +1069,27 @@
         <v>0.04</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3">
@@ -1069,27 +1099,27 @@
         <v>0.04</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3">
@@ -1099,26 +1129,26 @@
         <v>0.02</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1130,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3">
@@ -1143,12 +1173,12 @@
         <v>1.7998E-2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1160,10 +1190,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3">
@@ -1173,12 +1203,12 @@
         <v>2.3186999999999999E-2</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1190,10 +1220,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3">
@@ -1203,12 +1233,12 @@
         <v>7.8566999999999998E-2</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1220,10 +1250,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3">
@@ -1233,12 +1263,12 @@
         <v>2.1617000000000001E-2</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1250,10 +1280,10 @@
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3">
@@ -1263,12 +1293,12 @@
         <v>0.01</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1280,10 +1310,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="3">
@@ -1293,26 +1323,26 @@
         <v>0.03</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -1323,11 +1353,11 @@
       <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>31</v>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="3">
@@ -1337,12 +1367,12 @@
         <v>0.02</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -1351,13 +1381,13 @@
         <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="3">
@@ -1367,12 +1397,12 @@
         <v>0.52249999999999996</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -1381,13 +1411,13 @@
         <v>10</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3">
@@ -1397,27 +1427,27 @@
         <v>0.04</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="3">
@@ -1427,12 +1457,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -1441,13 +1471,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="3">
@@ -1457,12 +1487,12 @@
         <v>0.2475</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -1471,13 +1501,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="3">
@@ -1487,133 +1517,14 @@
         <v>1.6752E-2</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1622,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1660,10 +1571,10 @@
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>4</v>
@@ -1672,7 +1583,7 @@
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1684,162 +1595,174 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="I3" s="3">
-        <v>9.3451000000000006E-2</v>
+        <v>8.6947999999999998E-2</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I7" s="3">
-        <v>9.4668000000000002E-2</v>
+        <v>9.2484999999999998E-2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.5966000000000001E-2</v>
+      </c>
       <c r="J8" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.9265000000000006E-2</v>
+      </c>
       <c r="J9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.7896000000000007E-2</v>
+      </c>
       <c r="J10" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1851,21 +1774,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.16192000000000001</v>
+      </c>
       <c r="J13" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1877,21 +1804,25 @@
         <v>7</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.28595999999999999</v>
+      </c>
       <c r="J14" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -1903,21 +1834,25 @@
         <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.20715</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -1929,21 +1864,25 @@
         <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.20621999999999999</v>
+      </c>
       <c r="J16" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1955,21 +1894,25 @@
         <v>7</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8.4487999999999994E-2</v>
+      </c>
       <c r="J17" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -1981,35 +1924,39 @@
         <v>7</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.29305999999999999</v>
+      </c>
       <c r="J18" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2020,22 +1967,26 @@
       <c r="D22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>31</v>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="H22" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9.0801999999999994E-2</v>
+      </c>
       <c r="J22" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
@@ -2044,24 +1995,28 @@
         <v>10</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.47614000000000001</v>
+      </c>
       <c r="J23" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -2070,50 +2025,58 @@
         <v>10</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="H24" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I24" s="3">
+        <v>9.2707999999999999E-2</v>
+      </c>
       <c r="J24" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8.2118999999999998E-2</v>
+      </c>
       <c r="J25" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -2122,24 +2085,28 @@
         <v>10</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9.4594999999999999E-2</v>
+      </c>
       <c r="J26" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1</v>
@@ -2148,38 +2115,42 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="I27" s="3">
+        <v>112201.66439999999</v>
+      </c>
       <c r="J27" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -2191,19 +2162,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="H30" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.11242000000000001</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -2215,78 +2192,538 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8.3052000000000001E-2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
+      <c r="H32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.13150999999999999</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="I33" s="3">
+        <v>7.621E-2</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I34" s="3">
+        <v>7.5492000000000004E-2</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
+      <c r="H35" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9.2133999999999994E-2</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I38" s="3">
+        <v>8.4417000000000006E-2</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="3">
+        <v>8.7082999999999994E-2</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.15504999999999999</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="9">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9.4450000000000006E-2</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8.7490999999999999E-2</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="9">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="I45" s="3">
+        <v>7.8021999999999994E-2</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="I46" s="3">
+        <v>3.3933999999999999E-2</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5.2818999999999998E-2</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" s="9">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.11731</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="9">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9.6356999999999998E-2</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9">
+        <v>6</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="3">
+        <v>3.6817000000000003E-2</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>9</v>
+      </c>
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="I51" s="3">
+        <v>8.1656000000000006E-2</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A37:J37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F2C28-A5B0-4B1A-88FD-DC7AF5ABD21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9616C1-6FD4-4D93-8135-049307761277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2557,10 +2557,10 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3">
-        <v>0.68</v>
+        <v>0.91</v>
       </c>
       <c r="I46" s="3">
-        <v>3.3933999999999999E-2</v>
+        <v>2.0809999999999999E-2</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>29</v>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9616C1-6FD4-4D93-8135-049307761277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538A85D-21EA-4A9D-A225-B9D6B64DC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
     <sheet name="GREEK b)" sheetId="2" r:id="rId2"/>
+    <sheet name="GREEK c)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="70">
   <si>
     <t>Função de treino</t>
   </si>
@@ -1535,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2677,10 +2678,10 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I50" s="3">
-        <v>3.6817000000000003E-2</v>
+        <v>5.1534000000000003E-2</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>29</v>
@@ -2728,4 +2729,1063 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60710A4B-FBBA-4B41-93EB-8E5D259A11EA}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11" style="8"/>
+    <col min="9" max="9" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>1</v>
+      </c>
+      <c r="B43" s="9">
+        <v>6</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="9">
+        <v>6</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>4</v>
+      </c>
+      <c r="B46" s="9">
+        <v>6</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="9">
+        <v>6</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" s="9">
+        <v>6</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="9">
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9">
+        <v>6</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>9</v>
+      </c>
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A42:J42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0538A85D-21EA-4A9D-A225-B9D6B64DC955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E26C5B-F4CB-4643-AF78-6D5350E9040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
     <sheet name="GREEK b)" sheetId="2" r:id="rId2"/>
-    <sheet name="GREEK c)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="74">
   <si>
     <t>Função de treino</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>tansig, logsig, purelin, tansig, tansig, logsig, purelin</t>
+  </si>
+  <si>
+    <t>rede46</t>
+  </si>
+  <si>
+    <t>rede50</t>
+  </si>
+  <si>
+    <t>rede51</t>
+  </si>
+  <si>
+    <t>teste pasta 3</t>
   </si>
 </sst>
 </file>
@@ -922,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1536,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2732,1060 +2744,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60710A4B-FBBA-4B41-93EB-8E5D259A11EA}">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C038B8-04A9-4F6E-9564-257A27AAB193}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11" style="8"/>
-    <col min="9" max="9" width="13.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="8"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43" s="9">
-        <v>6</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>2</v>
-      </c>
-      <c r="B44" s="9">
-        <v>6</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>3</v>
-      </c>
-      <c r="B45" s="9">
-        <v>6</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>4</v>
-      </c>
-      <c r="B46" s="9">
-        <v>6</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>5</v>
-      </c>
-      <c r="B47" s="9">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>6</v>
-      </c>
-      <c r="B48" s="9">
-        <v>6</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>7</v>
-      </c>
-      <c r="B49" s="9">
-        <v>6</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5">
-        <v>8</v>
-      </c>
-      <c r="B50" s="9">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>9</v>
-      </c>
-      <c r="B51" s="9">
-        <v>6</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4" t="s">
-        <v>29</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A42:J42"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E26C5B-F4CB-4643-AF78-6D5350E9040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD455D6-18B8-4071-9A39-97C09D6AE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
     <sheet name="GREEK b)" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="GREEK c)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="77">
   <si>
     <t>Função de treino</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>teste pasta 3</t>
+  </si>
+  <si>
+    <t>TREINO DE REDE COM PASTA 3</t>
+  </si>
+  <si>
+    <t>teste pasta 1</t>
+  </si>
+  <si>
+    <t>teste pasta 2</t>
   </si>
 </sst>
 </file>
@@ -934,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:J12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1548,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2745,15 +2754,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C038B8-04A9-4F6E-9564-257A27AAB193}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2783,7 +2792,57 @@
         <v>0.375</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD455D6-18B8-4071-9A39-97C09D6AE391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2DFE5-E839-4FBF-A258-4C8C2853B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2757,7 +2757,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2810,28 +2810,82 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.92500000000000004</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D2">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D2DFE5-E839-4FBF-A258-4C8C2853B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44306AA5-2D4B-4ABA-8D33-4753DCCDDB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="78">
   <si>
     <t>Função de treino</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>teste pasta 2</t>
+  </si>
+  <si>
+    <t>TREINO DE REDE COM TODAS AS PASTAS</t>
   </si>
 </sst>
 </file>
@@ -2754,15 +2757,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C038B8-04A9-4F6E-9564-257A27AAB193}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2848,8 +2851,94 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2861,7 +2950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
+  <conditionalFormatting sqref="B10:D10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2873,7 +2962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
+  <conditionalFormatting sqref="B11:D11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2885,7 +2974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:D7">
+  <conditionalFormatting sqref="B12:D12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44306AA5-2D4B-4ABA-8D33-4753DCCDDB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD373D2-8E1F-463A-8809-AC87FBCDF249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
     <sheet name="GREEK b)" sheetId="2" r:id="rId2"/>
     <sheet name="GREEK c)" sheetId="4" r:id="rId3"/>
+    <sheet name="GREEK d)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="79">
   <si>
     <t>Função de treino</t>
   </si>
@@ -264,6 +265,9 @@
   </si>
   <si>
     <t>TREINO DE REDE COM TODAS AS PASTAS</t>
+  </si>
+  <si>
+    <t>caracteres</t>
   </si>
 </sst>
 </file>
@@ -2759,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C038B8-04A9-4F6E-9564-257A27AAB193}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2864,13 +2868,13 @@
         <v>75</v>
       </c>
       <c r="B10" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
       </c>
       <c r="D10" s="8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2878,13 +2882,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="8">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D11" s="8">
-        <v>0.41</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,13 +2896,260 @@
         <v>73</v>
       </c>
       <c r="B12" s="8">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="D12" s="8">
         <v>0.57499999999999996</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.5</v>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:D12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B45C-2FF1-4A56-89A7-3EE8A73E0C59}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4AA3A-5979-4A86-8E82-A050C7359993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF54C5-2E87-4C43-8C7F-687527637B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="1500" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="133">
   <si>
     <t>Função de treino</t>
   </si>
@@ -437,7 +437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -702,12 +702,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,10 +714,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -731,6 +725,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1166,7 +1172,7 @@
     <col min="8" max="8" width="11" style="8"/>
     <col min="9" max="10" width="12" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="18"/>
+    <col min="12" max="12" width="11" style="16"/>
     <col min="13" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -1199,7 +1205,7 @@
       <c r="K1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1224,36 +1230,36 @@
         <v>24</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
         <v>6.1960999999999998E-15</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <v>14</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1275,10 +1281,10 @@
         <v>24</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
         <v>0.04</v>
       </c>
       <c r="J7" s="4">
@@ -1287,7 +1293,7 @@
       <c r="K7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="16" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1311,10 +1317,10 @@
         <v>24</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
         <v>1.8663000000000001E-24</v>
       </c>
       <c r="J8" s="4">
@@ -1323,7 +1329,7 @@
       <c r="K8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1347,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="13">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
         <v>7.5356000000000003E-24</v>
       </c>
       <c r="J9" s="4">
@@ -1359,7 +1365,7 @@
       <c r="K9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="16" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1383,10 +1389,10 @@
         <v>24</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
         <v>2.3359000000000002E-19</v>
       </c>
       <c r="J10" s="4">
@@ -1395,23 +1401,23 @@
       <c r="K10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1433,10 +1439,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>0.6</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="J13" s="4">
@@ -1445,7 +1451,7 @@
       <c r="K13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1469,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>0.9</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>0.01</v>
       </c>
       <c r="J14" s="4">
@@ -1481,7 +1487,7 @@
       <c r="K14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1505,10 +1511,10 @@
         <v>24</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="13">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
         <v>1.9244000000000002E-12</v>
       </c>
       <c r="J15" s="4">
@@ -1517,7 +1523,7 @@
       <c r="K15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1541,10 +1547,10 @@
         <v>24</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
         <v>6.7340999999999994E-8</v>
       </c>
       <c r="J16" s="4">
@@ -1553,7 +1559,7 @@
       <c r="K16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1577,10 +1583,10 @@
         <v>24</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>0.8</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="J17" s="4">
@@ -1589,7 +1595,7 @@
       <c r="K17" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1613,10 +1619,10 @@
         <v>24</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
         <v>3.8776999999999997E-8</v>
       </c>
       <c r="J18" s="4">
@@ -1625,7 +1631,7 @@
       <c r="K18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1649,10 +1655,10 @@
         <v>24</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="13">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
         <v>0.01</v>
       </c>
       <c r="J19" s="4">
@@ -1661,7 +1667,7 @@
       <c r="K19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1685,10 +1691,10 @@
         <v>24</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="13">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J20" s="4">
@@ -1697,23 +1703,23 @@
       <c r="K20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1735,10 +1741,10 @@
         <v>24</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="13">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15">
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
         <v>9.5597000000000001E-17</v>
       </c>
       <c r="J24" s="4">
@@ -1747,7 +1753,7 @@
       <c r="K24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="16" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1771,10 +1777,10 @@
         <v>24</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>0.34250000000000003</v>
       </c>
       <c r="J25" s="4">
@@ -1783,7 +1789,7 @@
       <c r="K25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="16" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1807,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="13">
-        <v>1</v>
-      </c>
-      <c r="I26" s="15">
+      <c r="H26" s="11">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
         <v>6.9832000000000002E-10</v>
       </c>
       <c r="J26" s="4">
@@ -1819,7 +1825,7 @@
       <c r="K26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1843,10 +1849,10 @@
         <v>24</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="13">
-        <v>1</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="H27" s="11">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
         <v>4.0063E-24</v>
       </c>
       <c r="J27" s="4">
@@ -1855,7 +1861,7 @@
       <c r="K27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1879,10 +1885,10 @@
         <v>24</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>0.8</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="12">
         <v>0.23</v>
       </c>
       <c r="J28" s="4">
@@ -1891,7 +1897,7 @@
       <c r="K28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="16" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1915,10 +1921,10 @@
         <v>24</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="H29" s="11">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
         <v>2.5580000000000001E-21</v>
       </c>
       <c r="J29" s="4">
@@ -1927,7 +1933,7 @@
       <c r="K29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="16" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1946,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1970,7 @@
     <col min="10" max="11" width="14.25" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="8"/>
     <col min="13" max="13" width="19.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="18"/>
+    <col min="14" max="14" width="11" style="16"/>
     <col min="15" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
@@ -2003,7 +2009,7 @@
       <c r="M1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2028,13 +2034,13 @@
         <v>7</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>0.93</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="12">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="12">
         <v>7.3599999999999999E-2</v>
       </c>
       <c r="K3" s="3">
@@ -2046,26 +2052,26 @@
       <c r="M3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2087,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>0.74</v>
       </c>
       <c r="I7" s="3">
@@ -2105,7 +2111,7 @@
       <c r="M7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="16" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2129,10 +2135,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>0.92</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="13">
         <v>1.0972999999999999E-4</v>
       </c>
       <c r="J8" s="3">
@@ -2147,7 +2153,7 @@
       <c r="M8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2171,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>0.93</v>
       </c>
       <c r="I9" s="3">
@@ -2189,7 +2195,7 @@
       <c r="M9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="16" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2213,10 +2219,10 @@
         <v>7</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>0.92</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>3.0558000000000001E-9</v>
       </c>
       <c r="J10" s="3">
@@ -2231,25 +2237,25 @@
       <c r="M10" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2271,16 +2277,16 @@
         <v>7</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>0.33</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="L13" s="4">
@@ -2289,7 +2295,7 @@
       <c r="M13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2313,16 +2319,16 @@
         <v>7</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>0.41</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <v>9.0800000000000006E-2</v>
       </c>
       <c r="L14" s="4">
@@ -2331,7 +2337,7 @@
       <c r="M14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2355,16 +2361,16 @@
         <v>7</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>0.63</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>0.1019</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="12">
         <v>0.1305</v>
       </c>
       <c r="L15" s="4">
@@ -2373,7 +2379,7 @@
       <c r="M15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2397,16 +2403,16 @@
         <v>7</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
         <v>0.8</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="12">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="12">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="12">
         <v>0.12740000000000001</v>
       </c>
       <c r="L16" s="4">
@@ -2415,7 +2421,7 @@
       <c r="M16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2439,16 +2445,16 @@
         <v>7</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="13">
+      <c r="H17" s="11">
         <v>0.66</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="12">
         <v>0.06</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="12">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="12">
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="L17" s="4">
@@ -2457,7 +2463,7 @@
       <c r="M17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2481,16 +2487,16 @@
         <v>7</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="12">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>0.1061</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <v>0.1167</v>
       </c>
       <c r="L18" s="4">
@@ -2499,7 +2505,7 @@
       <c r="M18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N18" s="18" t="s">
+      <c r="N18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2523,16 +2529,16 @@
         <v>7</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>0.19</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>0.10489999999999999</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>9.1600000000000001E-2</v>
       </c>
       <c r="L19" s="4">
@@ -2541,7 +2547,7 @@
       <c r="M19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="18" t="s">
+      <c r="N19" s="16" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2565,16 +2571,16 @@
         <v>7</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="13">
+      <c r="H20" s="11">
         <v>0.69</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="12">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="12">
         <v>0.12839999999999999</v>
       </c>
       <c r="L20" s="4">
@@ -2583,25 +2589,25 @@
       <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N20" s="18" t="s">
+      <c r="N20" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2623,7 +2629,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <v>0.85</v>
       </c>
       <c r="I24" s="3">
@@ -2641,7 +2647,7 @@
       <c r="M24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N24" s="18" t="s">
+      <c r="N24" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2665,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="13">
+      <c r="H25" s="11">
         <v>0.22</v>
       </c>
       <c r="I25" s="3">
@@ -2683,7 +2689,7 @@
       <c r="M25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2707,7 +2713,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="13">
+      <c r="H26" s="11">
         <v>0.94</v>
       </c>
       <c r="I26" s="3">
@@ -2725,7 +2731,7 @@
       <c r="M26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N26" s="18" t="s">
+      <c r="N26" s="16" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2749,10 +2755,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <v>0.98</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>1.7032000000000001E-4</v>
       </c>
       <c r="J27" s="3">
@@ -2767,7 +2773,7 @@
       <c r="M27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2791,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="13">
+      <c r="H28" s="11">
         <v>0.31</v>
       </c>
       <c r="I28" s="3">
@@ -2809,12 +2815,12 @@
       <c r="M28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N28" s="18" t="s">
+      <c r="N28" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="1">
@@ -2833,10 +2839,10 @@
         <v>7</v>
       </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="13">
+      <c r="H29" s="11">
         <v>0.96</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="13">
         <v>1.8139000000000001E-29</v>
       </c>
       <c r="J29" s="3">
@@ -2851,25 +2857,25 @@
       <c r="M29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -2891,7 +2897,7 @@
         <v>109</v>
       </c>
       <c r="G32" s="1"/>
-      <c r="H32" s="13">
+      <c r="H32" s="11">
         <v>0.72</v>
       </c>
       <c r="I32" s="3">
@@ -2909,7 +2915,7 @@
       <c r="M32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2933,10 +2939,10 @@
         <v>16</v>
       </c>
       <c r="G33" s="1"/>
-      <c r="H33" s="13">
-        <v>1</v>
-      </c>
-      <c r="I33" s="15">
+      <c r="H33" s="11">
+        <v>1</v>
+      </c>
+      <c r="I33" s="13">
         <v>3.2163000000000002E-9</v>
       </c>
       <c r="J33" s="3">
@@ -2951,7 +2957,7 @@
       <c r="M33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="16" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2975,7 +2981,7 @@
         <v>53</v>
       </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="13">
+      <c r="H34" s="11">
         <v>0.92</v>
       </c>
       <c r="I34" s="3">
@@ -2993,7 +2999,7 @@
       <c r="M34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N34" s="18" t="s">
+      <c r="N34" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3017,10 +3023,10 @@
         <v>54</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="13">
+      <c r="H35" s="11">
         <v>0.63</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="13">
         <v>4.9200000000000001E-2</v>
       </c>
       <c r="J35" s="3">
@@ -3035,7 +3041,7 @@
       <c r="M35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3059,10 +3065,10 @@
         <v>55</v>
       </c>
       <c r="G36" s="1"/>
-      <c r="H36" s="13">
+      <c r="H36" s="11">
         <v>0.86</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="13">
         <v>1.1199E-11</v>
       </c>
       <c r="J36" s="3" t="s">
@@ -3077,7 +3083,7 @@
       <c r="M36" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="N36" s="16" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3101,10 +3107,10 @@
         <v>56</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="13">
+      <c r="H37" s="11">
         <v>0.87</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="13">
         <v>8.687E-5</v>
       </c>
       <c r="J37" s="3">
@@ -3119,25 +3125,25 @@
       <c r="M37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -3159,10 +3165,10 @@
         <v>62</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="13">
+      <c r="H40" s="11">
         <v>0.95</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="13">
         <v>2.453E-4</v>
       </c>
       <c r="J40" s="3">
@@ -3177,7 +3183,7 @@
       <c r="M40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3201,7 +3207,7 @@
         <v>61</v>
       </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="13">
+      <c r="H41" s="11">
         <v>0.95</v>
       </c>
       <c r="I41" s="3">
@@ -3219,7 +3225,7 @@
       <c r="M41" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="16" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3243,10 +3249,10 @@
         <v>64</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="13">
+      <c r="H42" s="11">
         <v>0.17</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="13">
         <v>1.544E-16</v>
       </c>
       <c r="J42" s="3">
@@ -3261,25 +3267,25 @@
       <c r="M42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -3301,10 +3307,10 @@
         <v>16</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="13">
+      <c r="H45" s="11">
         <v>0.94</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="12">
         <v>3.1099999999999999E-2</v>
       </c>
       <c r="J45" s="3">
@@ -3319,7 +3325,7 @@
       <c r="M45" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3343,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>0.79</v>
       </c>
       <c r="I46" s="3">
@@ -3361,12 +3367,12 @@
       <c r="M46" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20">
+      <c r="A47" s="18">
         <v>3</v>
       </c>
       <c r="B47" s="9">
@@ -3385,10 +3391,10 @@
         <v>62</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="13">
+      <c r="H47" s="11">
         <v>0.95</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="13">
         <v>3.2812E-4</v>
       </c>
       <c r="J47" s="3">
@@ -3403,12 +3409,12 @@
       <c r="M47" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20">
+      <c r="A48" s="18">
         <v>4</v>
       </c>
       <c r="B48" s="1">
@@ -3427,10 +3433,10 @@
         <v>62</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="13">
+      <c r="H48" s="11">
         <v>0.94</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="13">
         <v>5.2320999999999998E-7</v>
       </c>
       <c r="J48" s="3">
@@ -3445,7 +3451,7 @@
       <c r="M48" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3469,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <v>0.97</v>
       </c>
       <c r="I49" s="3">
@@ -3487,7 +3493,7 @@
       <c r="M49" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N49" s="18" t="s">
+      <c r="N49" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3511,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="13">
+      <c r="H50" s="11">
         <v>0.95</v>
       </c>
       <c r="I50" s="3">
@@ -3529,12 +3535,12 @@
       <c r="M50" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N50" s="18" t="s">
+      <c r="N50" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20">
+      <c r="A51" s="18">
         <v>7</v>
       </c>
       <c r="B51" s="10">
@@ -3553,10 +3559,10 @@
         <v>121</v>
       </c>
       <c r="G51" s="1"/>
-      <c r="H51" s="13">
-        <v>1</v>
-      </c>
-      <c r="I51" s="15">
+      <c r="H51" s="11">
+        <v>1</v>
+      </c>
+      <c r="I51" s="13">
         <v>1.7079E-6</v>
       </c>
       <c r="J51" s="3">
@@ -3571,12 +3577,12 @@
       <c r="M51" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="N51" s="18" t="s">
+      <c r="N51" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20">
+      <c r="A52" s="18">
         <v>8</v>
       </c>
       <c r="B52" s="9">
@@ -3595,10 +3601,10 @@
         <v>121</v>
       </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="13">
+      <c r="H52" s="11">
         <v>0.99</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="13">
         <v>8.7825999999999998E-9</v>
       </c>
       <c r="J52" s="3">
@@ -3613,7 +3619,7 @@
       <c r="M52" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="N52" s="16" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3636,13 +3642,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3667,9 +3674,21 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -3689,25 +3708,61 @@
       <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.61</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3721,28 +3776,160 @@
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:D2">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:D10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D11">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3754,7 +3941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
+  <conditionalFormatting sqref="B5:F5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3766,7 +3953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
+  <conditionalFormatting sqref="B6:F6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3778,7 +3965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:D7">
+  <conditionalFormatting sqref="B7:F7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3790,7 +3977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D10">
+  <conditionalFormatting sqref="B10:F10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3802,7 +3989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D11">
+  <conditionalFormatting sqref="B11:F11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3814,7 +4001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:D12">
+  <conditionalFormatting sqref="B12:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3827,6 +4014,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3835,7 +4023,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3849,20 +4037,12 @@
         <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\CR\isec-trabalho-cr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FF54C5-2E87-4C43-8C7F-687527637B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0457E-8295-4B61-8F4D-C1A439F86FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1500" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="146">
   <si>
     <t>Função de treino</t>
   </si>
@@ -430,6 +430,45 @@
   </si>
   <si>
     <t>net52</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>π</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>ψ</t>
+  </si>
+  <si>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>✗</t>
   </si>
 </sst>
 </file>
@@ -726,17 +765,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -1248,18 +1287,18 @@
     </row>
     <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1406,18 +1445,18 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1708,18 +1747,18 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2058,20 +2097,20 @@
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2242,20 +2281,20 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2594,20 +2633,20 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2862,20 +2901,20 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
@@ -3130,20 +3169,20 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -3272,20 +3311,20 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -3642,7 +3681,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3674,19 +3713,19 @@
       <c r="A2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>0.85</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>0.75</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>0.875</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>0.95</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
         <v>0.7</v>
       </c>
     </row>
@@ -3708,19 +3747,19 @@
       <c r="A5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>0.1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>0.5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>0.1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>0.5</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -3728,19 +3767,19 @@
       <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>0.53</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>0.11</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>0.61</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -3748,19 +3787,19 @@
       <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>0.4</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>0.35</v>
       </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
         <v>0.7</v>
       </c>
     </row>
@@ -3776,19 +3815,19 @@
       <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="21">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3796,19 +3835,19 @@
       <c r="A11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>0.99</v>
       </c>
-      <c r="C11" s="21">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3816,19 +3855,19 @@
       <c r="A12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>0.95</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>0.95</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4020,162 +4059,231 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B45C-2FF1-4A56-89A7-3EE8A73E0C59}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
       <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
+      <c r="B21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
+  <conditionalFormatting sqref="D2:E2">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4187,7 +4295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:D5">
+  <conditionalFormatting sqref="C5:E5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4199,7 +4307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:D6">
+  <conditionalFormatting sqref="C6:E6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4211,7 +4319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:D7">
+  <conditionalFormatting sqref="C7:E7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4223,7 +4331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D10">
+  <conditionalFormatting sqref="C10:E10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4235,7 +4343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D11">
+  <conditionalFormatting sqref="C11:E11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4247,7 +4355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:D12">
+  <conditionalFormatting sqref="C12:E12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4260,5 +4368,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C0457E-8295-4B61-8F4D-C1A439F86FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFADCA-79D9-4871-A556-0804D136928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="146">
   <si>
     <t>Função de treino</t>
   </si>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -4061,14 +4061,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B45C-2FF1-4A56-89A7-3EE8A73E0C59}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4094,7 +4094,7 @@
       <c r="B2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D2" s="8"/>
@@ -4107,7 +4107,9 @@
       <c r="B3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -4118,7 +4120,9 @@
       <c r="B4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -4129,7 +4133,9 @@
       <c r="B5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
@@ -4140,7 +4146,9 @@
       <c r="B6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
@@ -4151,7 +4159,9 @@
       <c r="B7" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
@@ -4162,6 +4172,9 @@
       <c r="B8" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -4170,7 +4183,9 @@
       <c r="B9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
@@ -4181,7 +4196,9 @@
       <c r="B10" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
@@ -4192,7 +4209,9 @@
       <c r="B11" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
@@ -4203,7 +4222,9 @@
       <c r="B12" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
@@ -4214,6 +4235,9 @@
       <c r="B13" s="8" t="s">
         <v>135</v>
       </c>
+      <c r="C13" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -4222,6 +4246,9 @@
       <c r="B14" s="8" t="s">
         <v>136</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -4230,6 +4257,9 @@
       <c r="B15" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -4238,6 +4268,9 @@
       <c r="B16" s="8" t="s">
         <v>138</v>
       </c>
+      <c r="C16" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -4246,6 +4279,9 @@
       <c r="B17" s="8" t="s">
         <v>139</v>
       </c>
+      <c r="C17" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -4254,6 +4290,9 @@
       <c r="B18" s="8" t="s">
         <v>140</v>
       </c>
+      <c r="C18" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -4262,6 +4301,9 @@
       <c r="B19" s="8" t="s">
         <v>141</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -4270,6 +4312,9 @@
       <c r="B20" s="8" t="s">
         <v>142</v>
       </c>
+      <c r="C20" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -4278,7 +4323,7 @@
       <c r="B21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4295,7 +4340,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:E5">
+  <conditionalFormatting sqref="D5:E5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4307,7 +4352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
+  <conditionalFormatting sqref="D6:E6">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4319,7 +4364,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E7">
+  <conditionalFormatting sqref="D7:E7">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4331,7 +4376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:E10">
+  <conditionalFormatting sqref="D10:E10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4343,7 +4388,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:E11">
+  <conditionalFormatting sqref="D11:E11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4355,7 +4400,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:E12">
+  <conditionalFormatting sqref="D12:E12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Estudo.xlsx
+++ b/Estudo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\isec-trabalho-cr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFADCA-79D9-4871-A556-0804D136928E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43576F8-7FF7-4409-A386-CEF08BBCCA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GREEK a)" sheetId="1" r:id="rId1"/>
@@ -231,24 +231,12 @@
     <t>A junção dos melhores parâmetros de cada teste é benéfico ao desempenho?</t>
   </si>
   <si>
-    <t>teste pasta 3</t>
-  </si>
-  <si>
     <t>TREINO DE REDE COM PASTA 3</t>
   </si>
   <si>
-    <t>teste pasta 1</t>
-  </si>
-  <si>
-    <t>teste pasta 2</t>
-  </si>
-  <si>
     <t>TREINO DE REDE COM TODAS AS PASTAS</t>
   </si>
   <si>
-    <t>caracteres</t>
-  </si>
-  <si>
     <t>trainlm</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
     <t>net52</t>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>α</t>
   </si>
   <si>
@@ -469,6 +454,21 @@
   </si>
   <si>
     <t>✗</t>
+  </si>
+  <si>
+    <t>Caracteres</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Simulação Pasta 3</t>
+  </si>
+  <si>
+    <t>Simulação Pasta 1</t>
+  </si>
+  <si>
+    <t>Simulação Pasta 2</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33CC33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5757"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78DE84"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +721,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -765,17 +777,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -857,6 +881,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF78DE84"/>
+      <color rgb="FFFF5757"/>
+      <color rgb="FFCC0000"/>
       <color rgb="FF33CC33"/>
     </mruColors>
   </colors>
@@ -1195,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -1239,13 +1266,13 @@
         <v>26</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1263,7 +1290,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1279,26 +1306,26 @@
         <v>14</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1314,7 +1341,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1330,10 +1357,10 @@
         <v>1000</v>
       </c>
       <c r="K7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1350,7 +1377,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1366,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1386,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -1402,10 +1429,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -1438,29 +1465,29 @@
         <v>12</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -1472,7 +1499,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -1488,15 +1515,15 @@
         <v>42</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -1524,10 +1551,10 @@
         <v>517</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1560,10 +1587,10 @@
         <v>761</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1596,10 +1623,10 @@
         <v>394</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1632,10 +1659,10 @@
         <v>1000</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1668,10 +1695,10 @@
         <v>479</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,10 +1731,10 @@
         <v>1000</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1740,25 +1767,25 @@
         <v>1000</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1774,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>24</v>
@@ -1790,10 +1817,10 @@
         <v>9</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1810,7 +1837,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>24</v>
@@ -1826,10 +1853,10 @@
         <v>10</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,7 +1873,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>24</v>
@@ -1862,10 +1889,10 @@
         <v>14</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1882,7 +1909,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
@@ -1898,10 +1925,10 @@
         <v>12</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
@@ -1934,10 +1961,10 @@
         <v>25</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,7 +1981,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>24</v>
@@ -1970,10 +1997,10 @@
         <v>8</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1991,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE0E5DA-99CC-4959-BC56-3D33B6AFEA12}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2034,22 +2061,22 @@
         <v>25</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2067,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -2089,28 +2116,28 @@
         <v>12</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -2126,7 +2153,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -2148,10 +2175,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -2190,10 +2217,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2210,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -2232,10 +2259,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2252,7 +2279,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -2274,31 +2301,31 @@
         <v>25</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2310,7 +2337,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -2332,15 +2359,15 @@
         <v>29</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2374,10 +2401,10 @@
         <v>62</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2443,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,10 +2485,10 @@
         <v>31</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,10 +2527,10 @@
         <v>48</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N17" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,10 +2569,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,10 +2611,10 @@
         <v>15</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2626,27 +2653,27 @@
         <v>93</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2662,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>7</v>
@@ -2684,10 +2711,10 @@
         <v>10</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2704,7 +2731,7 @@
         <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>7</v>
@@ -2726,10 +2753,10 @@
         <v>12</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2746,7 +2773,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>7</v>
@@ -2768,10 +2795,10 @@
         <v>10</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2788,7 +2815,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>7</v>
@@ -2810,10 +2837,10 @@
         <v>16</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2830,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>7</v>
@@ -2852,10 +2879,10 @@
         <v>11</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2899,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>7</v>
@@ -2894,31 +2921,31 @@
         <v>9</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2930,10 +2957,10 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="11">
@@ -2952,10 +2979,10 @@
         <v>14</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2972,7 +2999,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>16</v>
@@ -2994,10 +3021,10 @@
         <v>26</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3014,7 +3041,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>53</v>
@@ -3036,10 +3063,10 @@
         <v>12</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3056,7 +3083,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>54</v>
@@ -3078,10 +3105,10 @@
         <v>16</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N35" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3098,7 +3125,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>55</v>
@@ -3120,10 +3147,10 @@
         <v>63</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3140,7 +3167,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>56</v>
@@ -3162,27 +3189,27 @@
         <v>16</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N37" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
@@ -3198,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>62</v>
@@ -3220,10 +3247,10 @@
         <v>17</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>61</v>
@@ -3262,10 +3289,10 @@
         <v>12</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3282,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>64</v>
@@ -3304,27 +3331,27 @@
         <v>7</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -3340,7 +3367,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>16</v>
@@ -3362,10 +3389,10 @@
         <v>10</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3404,10 +3431,10 @@
         <v>28</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3424,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>62</v>
@@ -3446,10 +3473,10 @@
         <v>15</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3466,7 +3493,7 @@
         <v>48</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>62</v>
@@ -3488,10 +3515,10 @@
         <v>10</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3508,7 +3535,7 @@
         <v>48</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>16</v>
@@ -3530,10 +3557,10 @@
         <v>9</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N49" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3547,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>16</v>
@@ -3572,10 +3599,10 @@
         <v>9</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3592,10 +3619,10 @@
         <v>48</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="11">
@@ -3614,10 +3641,10 @@
         <v>9</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -3631,13 +3658,13 @@
         <v>18</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="11">
@@ -3656,10 +3683,10 @@
         <v>27</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3681,51 +3708,51 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="19">
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="21">
         <v>0.85</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="21">
         <v>0.75</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="22">
         <v>0.875</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="21">
         <v>0.95</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="21">
         <v>0.7</v>
       </c>
     </row>
@@ -3735,139 +3762,139 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>67</v>
+    <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="19">
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="21">
         <v>0.1</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
         <v>0.5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="21">
         <v>0.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="21">
         <v>0.5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="21">
         <v>0.53</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="21">
         <v>0.11</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="21">
         <v>0.61</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="21">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="21">
         <v>0.4</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="21">
         <v>0.35</v>
       </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>70</v>
+    <row r="9" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="19">
-        <v>1</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="19">
+    <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="21">
         <v>0.99</v>
       </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="21">
         <v>0.95</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="22">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="22">
         <v>0.92500000000000004</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="21">
         <v>0.95</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="21">
         <v>1</v>
       </c>
     </row>
@@ -4059,272 +4086,273 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B45C-2FF1-4A56-89A7-3EE8A73E0C59}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>131</v>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>145</v>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>145</v>
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>145</v>
+      <c r="B4" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>145</v>
+      <c r="B5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>145</v>
+      <c r="B6" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>145</v>
+      <c r="B7" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>144</v>
+      <c r="B9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>139</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>145</v>
+      <c r="B10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>145</v>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>145</v>
+      <c r="B12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C18" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C19" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="C20" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C21" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
